--- a/data/trans_dic/P26-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P26-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P26-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P26-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,17%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,22%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,63%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,37%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,79%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,41%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,74%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,26%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,53%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,18%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>25,99; 43,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,58</t>
+          <t>25,61; 42,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,9</t>
+          <t>22,55; 41,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>5,77; 21,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>26,83; 43,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,98</t>
+          <t>42,53; 62,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,84</t>
+          <t>20,51; 37,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>6,21; 15,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>28,68; 41,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>35,22; 49,45</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,94</t>
+          <t>23,28; 35,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>7,66; 16,24</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,02%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,4%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,83%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,38%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,66%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,74%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,15%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>23,4; 30,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>22,76; 30,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>20,91; 28,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>5,39; 11,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>33,59; 42,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>31,07; 39,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>23,4; 31,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>6,62; 10,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>29,42; 35,46</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>28,06; 33,94</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>23,01; 28,65</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>6,63; 10,3</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,81%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,68%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,68%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,67%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,04%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,24%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,04%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,2%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,38%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,47%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,89%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>25,69; 31,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>29,98; 35,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>20,97; 26,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>7,83; 31,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>34,21; 40,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>36,78; 43,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>22,29; 28,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>12,09; 16,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>30,92; 35,43</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>34,11; 38,73</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>22,53; 26,6</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>11,05; 22,58</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,74%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,99%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,12%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,7%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,26%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,81%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,13%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,43%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,03%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>26,15; 33,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>29,41; 36,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>24,78; 31,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>8,53; 15,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>32,2; 39,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>37,4; 45,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>31,28; 38,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>9,17; 17,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>30,25; 35,79</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>34,53; 39,57</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>28,88; 33,87</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>10,16; 15,5</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,92%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,94%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,36%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,03%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,06%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,29%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,81%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,6%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,71%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,6%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,01%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,8%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>25,08; 30,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>33,65; 40,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>21,41; 27,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>12,57; 18,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>33,93; 39,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>33,09; 39,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>19,35; 25,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>12,6; 17,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>30,64; 34,81</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>34,5; 39,05</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>21,2; 25,31</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>13,11; 16,66</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,63%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,88%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,22%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,09%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,73%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,75%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,29%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,89%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,84%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,0%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,98%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>26,83; 30,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>31,09; 34,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>23,72; 26,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>10,53; 17,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>35,5; 38,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>36,99; 40,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>25,24; 28,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>11,75; 14,53</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>31,74; 34,04</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>34,57; 37,03</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>24,93; 27,11</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>11,87; 15,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P26-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P26-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>34,17%</t>
+          <t>28,25%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>33,22%</t>
+          <t>27,7%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>30,63%</t>
+          <t>25,45%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>35,37%</t>
+          <t>37,43%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>51,79%</t>
+          <t>37,68%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>28,41%</t>
+          <t>27,27%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>34,74%</t>
+          <t>32,77%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>42,26%</t>
+          <t>32,59%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>29,53%</t>
+          <t>26,37%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>8,99%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,99; 43,29</t>
+          <t>24,7; 31,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>25,61; 42,94</t>
+          <t>24,43; 31,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,55; 41,13</t>
+          <t>21,88; 29,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,77; 21,95</t>
+          <t>6,44; 12,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,83; 43,83</t>
+          <t>33,81; 41,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>42,53; 62,4</t>
+          <t>33,98; 41,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,51; 37,63</t>
+          <t>23,82; 30,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,21; 15,99</t>
+          <t>7,41; 11,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>28,68; 41,0</t>
+          <t>30,06; 35,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>35,22; 49,45</t>
+          <t>30,09; 35,17</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23,28; 35,7</t>
+          <t>24,05; 28,74</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,66; 16,24</t>
+          <t>7,41; 11,05</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>27,02%</t>
+          <t>28,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>26,59%</t>
+          <t>32,68%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>24,4%</t>
+          <t>23,68%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>29,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>37,83%</t>
+          <t>37,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>34,88%</t>
+          <t>40,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>27,05%</t>
+          <t>25,24%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>14,33%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>32,38%</t>
+          <t>33,2%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>30,66%</t>
+          <t>36,38%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>25,74%</t>
+          <t>24,47%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>22,66%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,4; 30,98</t>
+          <t>25,69; 31,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,76; 30,31</t>
+          <t>29,98; 35,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20,91; 28,69</t>
+          <t>20,97; 26,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,39; 11,33</t>
+          <t>8,3; 65,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,59; 42,03</t>
+          <t>34,21; 40,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,07; 39,27</t>
+          <t>36,78; 43,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,4; 31,12</t>
+          <t>22,29; 28,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,62; 10,9</t>
+          <t>12,36; 16,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,42; 35,46</t>
+          <t>30,92; 35,43</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28,06; 33,94</t>
+          <t>34,11; 38,73</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>23,01; 28,65</t>
+          <t>22,53; 26,6</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,63; 10,3</t>
+          <t>11,34; 50,94</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>28,81%</t>
+          <t>29,74%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>32,68%</t>
+          <t>32,99%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>23,68%</t>
+          <t>28,12%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>37,67%</t>
+          <t>35,94%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>40,04%</t>
+          <t>41,17%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>25,24%</t>
+          <t>34,7%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>33,2%</t>
+          <t>32,81%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>36,38%</t>
+          <t>37,13%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>31,43%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>13,89%</t>
+          <t>12,34%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,69; 31,9</t>
+          <t>26,15; 33,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>29,98; 35,96</t>
+          <t>29,41; 36,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,97; 26,61</t>
+          <t>24,78; 31,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,83; 31,26</t>
+          <t>9,04; 16,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>34,21; 40,87</t>
+          <t>32,2; 39,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>36,78; 43,44</t>
+          <t>37,4; 45,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,29; 28,15</t>
+          <t>31,28; 38,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,09; 16,43</t>
+          <t>6,51; 17,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>30,92; 35,43</t>
+          <t>30,25; 35,79</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>34,11; 38,73</t>
+          <t>34,53; 39,57</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22,53; 26,6</t>
+          <t>28,88; 33,87</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,05; 22,58</t>
+          <t>8,11; 15,23</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29,74%</t>
+          <t>27,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>32,99%</t>
+          <t>36,94%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>28,12%</t>
+          <t>24,36%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>35,94%</t>
+          <t>37,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>41,17%</t>
+          <t>36,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>34,7%</t>
+          <t>21,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,26%</t>
+          <t>14,17%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>32,81%</t>
+          <t>32,71%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>37,13%</t>
+          <t>36,6%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>31,43%</t>
+          <t>23,01%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>14,86%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,15; 33,15</t>
+          <t>25,08; 30,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,41; 36,58</t>
+          <t>33,65; 40,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,78; 31,31</t>
+          <t>21,41; 27,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,53; 15,0</t>
+          <t>13,09; 18,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,2; 39,97</t>
+          <t>33,93; 39,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,4; 45,01</t>
+          <t>33,09; 39,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,28; 38,55</t>
+          <t>19,35; 25,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,17; 17,79</t>
+          <t>11,12; 16,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,25; 35,79</t>
+          <t>30,64; 34,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>34,53; 39,57</t>
+          <t>34,5; 39,05</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>28,88; 33,87</t>
+          <t>21,2; 25,31</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,16; 15,5</t>
+          <t>12,78; 17,04</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>27,92%</t>
+          <t>28,63%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>36,94%</t>
+          <t>32,88%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>24,36%</t>
+          <t>25,22%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>18,49%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>37,06%</t>
+          <t>37,09%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>36,29%</t>
+          <t>38,73%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>26,75%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>32,71%</t>
+          <t>32,89%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>36,6%</t>
+          <t>35,84%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>23,01%</t>
+          <t>26,0%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>15,6%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>25,08; 30,56</t>
+          <t>26,83; 30,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>33,65; 40,48</t>
+          <t>31,09; 34,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,41; 27,11</t>
+          <t>23,72; 26,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,57; 18,02</t>
+          <t>11,07; 37,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,93; 39,89</t>
+          <t>35,5; 38,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>33,09; 39,47</t>
+          <t>36,99; 40,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,35; 25,01</t>
+          <t>25,24; 28,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,6; 17,15</t>
+          <t>10,36; 14,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>30,64; 34,81</t>
+          <t>31,74; 34,04</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>34,5; 39,05</t>
+          <t>34,57; 37,03</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>21,2; 25,31</t>
+          <t>24,93; 27,11</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,11; 16,66</t>
+          <t>11,96; 27,07</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>28,63%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>32,88%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>25,22%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>12,64%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>37,09%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>38,73%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>26,75%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>13,29%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>32,89%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>35,84%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>26,0%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>12,98%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>26,83; 30,27</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>31,09; 34,49</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>23,72; 26,83</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>10,53; 17,74</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>35,5; 38,85</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>36,99; 40,46</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>25,24; 28,25</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>11,75; 14,53</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>31,74; 34,04</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>34,57; 37,03</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>24,93; 27,11</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>11,87; 15,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P26-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P26-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,7; 31,97</t>
+          <t>24,65; 31,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24,43; 31,13</t>
+          <t>24,28; 31,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,88; 29,37</t>
+          <t>22,1; 28,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,44; 12,62</t>
+          <t>6,34; 12,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>33,81; 41,38</t>
+          <t>33,54; 41,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,98; 41,8</t>
+          <t>33,87; 41,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,82; 30,58</t>
+          <t>23,86; 30,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,41; 11,45</t>
+          <t>7,39; 11,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>30,06; 35,35</t>
+          <t>30,15; 35,6</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>30,09; 35,17</t>
+          <t>30,1; 35,42</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>24,05; 28,74</t>
+          <t>24,1; 28,92</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,41; 11,05</t>
+          <t>7,44; 11,13</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,69; 31,9</t>
+          <t>25,83; 31,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>29,98; 35,96</t>
+          <t>29,49; 35,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20,97; 26,61</t>
+          <t>21,05; 26,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,3; 65,89</t>
+          <t>8,48; 59,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,21; 40,87</t>
+          <t>34,34; 40,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,78; 43,44</t>
+          <t>36,91; 43,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,29; 28,15</t>
+          <t>22,69; 28,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,36; 16,77</t>
+          <t>12,48; 16,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>30,92; 35,43</t>
+          <t>30,72; 35,33</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>34,11; 38,73</t>
+          <t>34,13; 38,48</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>22,53; 26,6</t>
+          <t>22,49; 26,69</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,34; 50,94</t>
+          <t>11,29; 52,29</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,15; 33,15</t>
+          <t>26,32; 33,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>29,41; 36,58</t>
+          <t>29,33; 36,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>24,78; 31,31</t>
+          <t>24,95; 31,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,04; 16,0</t>
+          <t>9,02; 16,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>32,2; 39,97</t>
+          <t>32,04; 39,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>37,4; 45,01</t>
+          <t>37,51; 45,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,28; 38,55</t>
+          <t>31,26; 38,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,51; 17,31</t>
+          <t>5,61; 17,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>30,25; 35,79</t>
+          <t>30,03; 35,47</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>34,53; 39,57</t>
+          <t>34,37; 40,01</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>28,88; 33,87</t>
+          <t>29,02; 33,97</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,11; 15,23</t>
+          <t>7,84; 15,41</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,08; 30,56</t>
+          <t>25,14; 30,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,65; 40,48</t>
+          <t>33,74; 40,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,41; 27,11</t>
+          <t>21,42; 27,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,09; 18,89</t>
+          <t>12,79; 18,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,93; 39,89</t>
+          <t>34,0; 40,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,09; 39,47</t>
+          <t>33,17; 39,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,35; 25,01</t>
+          <t>19,23; 24,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,12; 16,83</t>
+          <t>11,08; 16,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,64; 34,81</t>
+          <t>30,37; 34,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>34,5; 39,05</t>
+          <t>34,3; 38,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,2; 25,31</t>
+          <t>21,08; 25,09</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,78; 17,04</t>
+          <t>12,67; 16,78</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>26,83; 30,27</t>
+          <t>26,86; 30,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>31,09; 34,49</t>
+          <t>31,4; 34,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,72; 26,83</t>
+          <t>23,62; 26,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,07; 37,75</t>
+          <t>11,44; 38,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>35,5; 38,85</t>
+          <t>35,32; 38,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>36,99; 40,46</t>
+          <t>37,15; 40,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>25,24; 28,25</t>
+          <t>25,12; 28,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,36; 14,4</t>
+          <t>10,37; 14,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31,74; 34,04</t>
+          <t>31,63; 34,08</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>34,57; 37,03</t>
+          <t>34,64; 37,1</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>24,93; 27,11</t>
+          <t>24,86; 27,16</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,96; 27,07</t>
+          <t>11,95; 26,66</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tienen algún familiar que fuma habitualmente en casa</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>181599</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>188635</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>155761</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>48772</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>233704</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>246279</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>170239</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>55429</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>415304</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>434914</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>326000</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>104201</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>158443; 205476</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>165327; 211502</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>135290; 177443</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>35297; 69823</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>209414; 258429</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>221377; 273089</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>148948; 192042</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>44574; 68075</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>382079; 451124</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>401689; 472679</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>297959; 357517</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>86224; 128976</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>563</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>261376</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>320697</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>228619</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>325723</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>335265</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>397329</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>247274</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>125182</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>596642</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>718026</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>475893</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>450905</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>234294; 290207</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>289459; 349967</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>203280; 257956</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>94654; 665802</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>305658; 363898</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>366260; 432258</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>222295; 276611</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>109030; 144408</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>552059; 635016</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>673673; 759453</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>437421; 519137</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>224605; 1040506</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>188754</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>236498</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>203345</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>78356</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>224068</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>301747</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>254313</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>110271</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>412822</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>538245</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>457658</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>188627</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>167024; 213228</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>210234; 262372</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>180432; 229931</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>58225; 103614</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>199772; 247362</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>274916; 330207</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>229088; 281895</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>49529; 151427</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>377814; 446201</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>498267; 580004</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>422513; 494695</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>119820; 235636</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>242155</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>332951</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>207063</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>133409</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>353791</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>357101</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>206425</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>142509</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>595947</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>690052</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>413487</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>275917</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>217999; 268244</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>304029; 362357</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>182105; 231270</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>108904; 158228</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>324573; 386201</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>326439; 385910</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>182026; 233767</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>111426; 166048</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>553271; 635581</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>646710; 732970</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>378739; 450729</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>235349; 311630</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1017</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1215</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2232</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1589</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>901</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>873885</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1078781</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>794787</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>586260</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1146829</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1302456</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>878250</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>433391</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2020714</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2381237</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1673037</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1019650</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>819766; 919521</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1030129; 1135805</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>744248; 846071</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>362671; 1220357</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1092109; 1200621</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1249274; 1358923</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>824932; 925972</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>348927; 481007</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1943595; 2094258</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2301312; 2464960</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1599733; 1747684</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>781055; 1741870</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>